--- a/06_pandas/data.xlsx
+++ b/06_pandas/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>Occupation</t>
-  </si>
-  <si>
-    <t>Born_dt</t>
-  </si>
-  <si>
-    <t>Died_dt</t>
-  </si>
-  <si>
-    <t>age_days</t>
   </si>
   <si>
     <t>Rosaline Franklin</t>
@@ -137,9 +128,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,13 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,246 +501,165 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7512</v>
-      </c>
-      <c r="H2" s="2">
-        <v>21291</v>
-      </c>
-      <c r="I2" s="3">
-        <v>13779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2">
-        <v>-8601</v>
-      </c>
-      <c r="H3" s="2">
-        <v>13804</v>
-      </c>
-      <c r="I3" s="3">
-        <v>22404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-29087</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3878</v>
-      </c>
-      <c r="I4" s="3">
-        <v>32964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-11742</v>
-      </c>
-      <c r="H5" s="2">
-        <v>12604</v>
-      </c>
-      <c r="I5" s="3">
-        <v>24345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2704</v>
-      </c>
-      <c r="H6" s="2">
-        <v>23481</v>
-      </c>
-      <c r="I6" s="3">
-        <v>20777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2">
-        <v>-31702</v>
-      </c>
-      <c r="H7" s="2">
-        <v>-15173</v>
-      </c>
-      <c r="I7" s="3">
-        <v>16529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2">
-        <v>4558</v>
-      </c>
-      <c r="H8" s="2">
-        <v>19882</v>
-      </c>
-      <c r="I8" s="3">
-        <v>15324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2">
-        <v>-44804</v>
-      </c>
-      <c r="H9" s="2">
-        <v>-16382</v>
-      </c>
-      <c r="I9" s="3">
-        <v>28422</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
